--- a/app/webroot/uploads/export/clients.xlsx
+++ b/app/webroot/uploads/export/clients.xlsx
@@ -17,24 +17,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Created By</t>
   </si>
   <si>
-    <t>Created Date</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>Client Name</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Positions</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>Account Holder</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Modified</t>
   </si>
 </sst>
 </file>
@@ -84,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -99,6 +111,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,21 +416,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="30" style="5" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="4" customWidth="1"/>
-    <col min="7" max="215" width="9.140625" style="2"/>
+    <col min="4" max="4" width="11.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
+    <col min="11" max="215" width="9.140625" style="2"/>
     <col min="216" max="216" width="17.85546875" style="2" customWidth="1"/>
     <col min="217" max="217" width="25.5703125" style="2" customWidth="1"/>
     <col min="218" max="218" width="27.42578125" style="2" customWidth="1"/>
@@ -735,24 +752,36 @@
     <col min="16092" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/app/webroot/uploads/export/clients.xlsx
+++ b/app/webroot/uploads/export/clients.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Created By</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Positions</t>
   </si>
   <si>
-    <t>Contacts</t>
-  </si>
-  <si>
     <t>Account Holder</t>
   </si>
   <si>
@@ -47,6 +44,24 @@
   </si>
   <si>
     <t>Modified</t>
+  </si>
+  <si>
+    <t>No. Of Contacts</t>
+  </si>
+  <si>
+    <t>Contact 1</t>
+  </si>
+  <si>
+    <t>Contact 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact 4 </t>
+  </si>
+  <si>
+    <t>Contact 5</t>
+  </si>
+  <si>
+    <t>Contact 3</t>
   </si>
 </sst>
 </file>
@@ -96,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -112,6 +127,8 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -428,13 +445,17 @@
     <col min="2" max="2" width="21.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" style="5" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="5" customWidth="1"/>
     <col min="6" max="6" width="23.140625" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" style="2" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
-    <col min="11" max="215" width="9.140625" style="2"/>
+    <col min="11" max="11" width="24.140625" style="8" customWidth="1"/>
+    <col min="12" max="13" width="18.85546875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" style="8" customWidth="1"/>
+    <col min="16" max="215" width="9.140625" style="2"/>
     <col min="216" max="216" width="17.85546875" style="2" customWidth="1"/>
     <col min="217" max="217" width="25.5703125" style="2" customWidth="1"/>
     <col min="218" max="218" width="27.42578125" style="2" customWidth="1"/>
@@ -752,7 +773,7 @@
     <col min="16092" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -766,10 +787,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>2</v>
@@ -778,10 +799,25 @@
         <v>0</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>9</v>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
